--- a/medicine/Enfance/Jean-Louis_Fraysse/Jean-Louis_Fraysse.xlsx
+++ b/medicine/Enfance/Jean-Louis_Fraysse/Jean-Louis_Fraysse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Fraysse (né le 28 juillet 1946 à Cransac dans l'Aveyron et mort le 27 juillet 2011  à Montferrat[1] dans le Var), est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Fraysse (né le 28 juillet 1946 à Cransac dans l'Aveyron et mort le 27 juillet 2011  à Montferrat dans le Var), est un écrivain français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a signé avec son épouse, Marcelle Perriod, de nombreuses œuvres de littérature de jeunesse sous le pseudonyme collectif de Michel Grimaud. Jean-Louis Fraysse tenait aussi régulièrement un blog personnel sous le titre Le Coucou de Claviers[2],[3].
-Il a reçu le prix Sobrier-Arnould de l’Académie française en 1983 pour Les contes de la ficelle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a signé avec son épouse, Marcelle Perriod, de nombreuses œuvres de littérature de jeunesse sous le pseudonyme collectif de Michel Grimaud. Jean-Louis Fraysse tenait aussi régulièrement un blog personnel sous le titre Le Coucou de Claviers,.
+Il a reçu le prix Sobrier-Arnould de l’Académie française en 1983 pour Les contes de la ficelle.
 </t>
         </is>
       </c>
